--- a/output/News.xlsx
+++ b/output/News.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,18 +480,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adventure and Independence Await. Bug Spray Sold Separately.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>Uber’s Diversity Chief Put on Leave After Complaints of Insensitivity</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6h ago</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Seven brand-new and time-tested books about sleepaway camp.</t>
+          <t>The executive hosted sessions about race and being a white woman that were titled “Don’t Call Me Karen,” prompting an employee uproar.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/05/21/books/review/21KIDS-CAMP-SUB/21KIDS-CAMP-SUB-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/05/21/multimedia/00uber-hvpm/00uber-hvpm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -509,22 +513,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hard Truths About Organ Transplants: The Often Harrowing Aftermath</t>
+          <t>The Week in Business: An Attempt to Ban TikTok</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>May 19</t>
+          <t>May 21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Transplant recipients, doctors and others react to a guest essay by a dying woman with a donor heart.</t>
+          <t>The latest clash between Florida’s governor and Disney. The looming X-date. And the boom this year in corporate bankruptcies.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/23/opinion/23Silverstein-Print/23Silverstein-Print-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/05/21/business/21withintererest-illo-print/21withintererest-illo-print-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -533,7 +537,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -542,22 +546,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tucker Carlson’s Firing by Fox News</t>
+          <t>Disney to Close ‘Star Wars’-Themed Hotel Less Than Two Years After It Opened</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>April 29</t>
+          <t>May 20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Readers discuss why he was ousted and what it signifies. Also: An alternative to a Fox apology; aging lesbians; honoring subpoenas.</t>
+          <t>The planned closure of Galactic Starcruiser, an immersive role-playing attraction, comes as Disney seeks to cut overall costs by more than $5 billion.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/04/25/multimedia/25themorning-lede-carlson-vfqp/25themorning-lede-carlson-vfqp-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/05/20/multimedia/20xp-disney-fvpz/20xp-disney-fvpz-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -566,31 +570,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A.I. Can’t Write My Cat Story Because It Hasn’t Felt What I Feel</t>
+          <t>DeSantis Lawyers Ask Judge in Disney Case to Recuse Himself</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>April 25</t>
+          <t>May 19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A.I. hasn’t suffered enough to write this essay.</t>
+          <t>They argued that Judge Mark E. Walker’s comments in two unrelated proceedings displayed a bias toward the company.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/03/26/opinion/sunday/26Means/26Means-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/05/19/multimedia/19disney-florida-wptf/19disney-florida-wptf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,7 +603,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -608,22 +612,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rebecca Makkai Wishes More Novelists Would Write About People’s Jobs</t>
+          <t>Disney Inflicts a Blow to DeSantis Ahead of His Presidential Run</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>March 26</t>
+          <t>May 19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>“Not a generically boring office job, but something terribly specific that we don’t normally get to hear about,” says the author, whose new book is “I Have Some Questions for You.</t>
+          <t>The entertainment giant’s move to cancel a major office project stung the Florida governor just days before he is expected to officially enter the 2024 race.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/02/19/books/review/19ByTheBook-MAKKAI/19ByTheBook-MAKKAI-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/05/19/multimedia/19db-desantis-vptj/19db-desantis-vptj-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -632,7 +636,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -641,22 +645,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Don’t Buy Biden’s ‘Buy American’</t>
+          <t>Disney Pulls Plug on $1 Billion Development in Florida</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Feb. 16</t>
+          <t>May 18</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A stringent requirement is either harmful to taxpayers or superfluous.</t>
+          <t>A new office complex, and relocation of a division from California, would have created more than 2,000 jobs but was scuttled as the company and Gov. Ron DeSantis continue to feud.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/02/10/opinion/10coy-image/10coy-image-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/05/18/multimedia/18disney-florida-promoart-czpk/18disney-florida-promoart-czpk-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -665,31 +669,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biden’s a Great President. He Should Not Run Again.</t>
+          <t>The Nuggets Want You to Forget What You Heard About the Nuggets</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Feb. 10</t>
+          <t>May 17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Democratic voters are right to worry about 2024.</t>
+          <t>Denver is unraveling its reputation for playoff disappointment one win at a time.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/02/08/multimedia/06goldberg1-tzkb/06goldberg1-tzkb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/05/17/multimedia/17nba-west-1-tkqh/17nba-west-1-tkqh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -707,22 +711,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Politicians Everywhere All at Once</t>
+          <t>Disney Argues New Florida Law Nullifies DeSantis-Backed Suit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Feb. 6</t>
+          <t>May 16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>It’s a big week in Washington.</t>
+          <t>The company wants a state court case involving development at Disney World dismissed, saying actions by the Florida governor and his allies made it moot.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/02/07/multimedia/06conversation3-pcqh/06conversation3-pcqh-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/05/16/multimedia/16Disney-zqtf/16Disney-zqtf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -731,7 +735,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -740,22 +744,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Something Very Important for Democrats Just Happened in Pennsylvania</t>
+          <t>Disney’s Losses From Streaming Narrowed in the Last Quarter</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Feb. 6</t>
+          <t>May 10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Opening state jobs to more workers is a wise tweak to the party’s image.</t>
+          <t>The company’s earnings were buoyed by its theme parks and cruise ships. It also announced it would soon put Hulu content on Disney+.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/02/02/opinion/02bruni-newsletter-image/02bruni-newsletter-image-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/05/11/multimedia/10subjpDISNEY-print-zbfm/10DISNEY-SUB-zbfm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -764,7 +768,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -773,22 +777,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>We Profiled the ‘Signs of Crisis’ in 50 Years of Mass Shootings. This Is What We Found.</t>
+          <t>Debt-Ceiling Déjà Vu Worries Wall Street</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Feb. 2</t>
+          <t>May 8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The killings are a symptom of a deeper societal problem: the continued rise of “deaths of despair.”</t>
+          <t>The last crisis, in 2011, led to a credit downgrade that sank stocks. This time, Treasury Secretary Janet Yellen has warned of a “financial catastrophe.”</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/01/25/opinion/26peterson-promo/26peterson-promo-threeByTwoSmallAt2X-v17.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/05/08/multimedia/08db-biden-klqp/08db-biden-klqp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -806,22 +810,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Noma and the Fizzle of Too-Fine Dining</t>
+          <t>DeSantis Signs Into Law Latest Wrinkle in Disney Feud</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jan. 26</t>
+          <t>May 5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>An elite establishment’s closing raises questions about what a restaurant should be.</t>
+          <t>The bill would allow approved development agreements for Walt Disney World to be voided. The company has already sued the governor over the issue.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2023/01/12/multimedia/12bruni-newsletter-1-klvm/12bruni-newsletter-1-klvm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/05/05/multimedia/05DISNEY-reedy-kvhp/05DISNEY-reedy-kvhp-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -830,7 +834,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -839,22 +843,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>It’s Time to Say Goodbye to Lush Lawns</t>
+          <t>Why Many on Wall Street Fear the Banking Crisis Isn’t Over</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jan. 10</t>
+          <t>May 2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The environmental damage of lawns is far worse than most people imagine. Also: Migrant crisis; arms for Ukraine; FTX and political donations.</t>
+          <t>Even after the sale of First Republic, investors are worried about challenges that regional banks still face, imperiling the economy.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/12/15/multimedia/15cli-nativegardeners-print-1-6b33/15cli-nativegardeners-print-1-6b33-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/05/02/multimedia/02db-frc-mlqv/02db-frc-mlqv-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -872,22 +876,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Women Are on the March</t>
+          <t>Disney Sued by Florida for Control of Theme Park’s Expansion</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jan. 2</t>
+          <t>May 2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fewer men are filling governors’ mansions. Not few enough.</t>
+          <t>A board appointed by Gov. Ron DeSantis claims the company cut a “back room deal” to control development at Walt Disney World.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/12/21/multimedia/21collins-1-d93d/21collins-1-d93d-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/05/03/multimedia/02disney-print/27themorning-disney-2-zkpb-threeByTwoSmallAt2X-v3.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -896,7 +900,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -905,22 +909,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Trump Was a Gift That Might Not Keep Giving</t>
+          <t>JPMorgan Chase Returns to a Familiar Role: Bank Rescuer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dec. 21, 2022</t>
+          <t>May 1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Democrats may be relieved, but they should not be overconfident.</t>
+          <t>The lending giant’s shares jumped on the news that it is buying First Republic. But investors are watching to see if the deal ends the regional banking crisis.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/11/23/arts/23edsall-1/merlin_215924070_6112cfde-2f3d-4f57-bb3f-2793538965f7-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/05/01/multimedia/01db-firstrepublic-gfcb/01db-firstrepublic-gfcb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -938,22 +942,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Enemies of Democracy Should Fear the American Voter</t>
+          <t>The Week in Business: High-Profile Media Ousters</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nov. 23, 2022</t>
+          <t>April 30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Most candidates who refused to concede that Trump was defeated in 2020 lost their own elections.</t>
+          <t>First Republic is struggling. The Fed faults its own oversight of Silicon Valley Bank. The U.S. economy is still growing but at a slower pace. And a jobs report is coming out.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/11/18/opinion/16beutler-image/16beutler-image-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/30/business/30withinterest1-web/30withinterest1-web-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -971,22 +975,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>How Doctors View Patients With Disabilities</t>
+          <t>Hollywood, Both Frantic and Calm, Braces for Writers’ Strike</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nov. 17, 2022</t>
+          <t>April 28</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>When patients with disabilities receive substandard care. Also: Kari Lake’s defeat; Mike Pence; Ukraine; South African coal; Apple’s betrayal; when to brush.</t>
+          <t>Studios have moved up deadlines for TV writers, and late-night shows are preparing to go dark. But for other segments of the industry, it’s business as usual.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/10/25/science/00disabled-patients1/00disabled-patients1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/29/multimedia/28writersstrike-warner-fvgw/28writersstrike-warner-fvgw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1004,22 +1008,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>‘We May Have Reached the Limit of Crazy That Will Be Tolerated’</t>
+          <t>What Microsoft’s Activision Setback Means for Deal Making</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nov. 15, 2022</t>
+          <t>April 27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Frank Bruni digs into the midterm results with Mallory McMorrow and Jonathan Last.</t>
+          <t>A British agency’s move to block the company’s $69 billion bid for the video games company reflects a new regulatory reality for corporate buyers.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/11/09/opinion/09roundtable-art/09roundtable-art-threeByTwoSmallAt2X-v2.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/27/multimedia/27db-microsoft-tvkh/27db-microsoft-tvkh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1031,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>The Rise of the Republican Apostate</t>
+          <t>Disney Sues DeSantis Over Control of Its Florida Resort</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nov. 9, 2022</t>
+          <t>April 26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Doctors doubting science, former journalists undermining the truth, lawyers attacking the rule of law. This is the new face of the conservative movement.</t>
+          <t>The company claimed “a targeted campaign of government retaliation,” which it said stemmed from its criticism of a contentious state education law.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/11/06/opinion/31Kroll/31Kroll-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/26/multimedia/26DISNEY-DESANTIS-1-gwfl/26DISNEY-DESANTIS-1-gwfl-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1061,7 +1065,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1070,22 +1074,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>The Republican Double Standard That’s Endangering American Democracy</t>
+          <t>The U.K. Deals a Huge Blow to Microsoft’s $69 Billion Activision Bid</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Oct. 31, 2022</t>
+          <t>April 26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Heads, Republicans win. Tails, Democrats cheated.</t>
+          <t>The British antitrust watchdog blocked the takeover attempt, in a decision that will be closely watched in Washington and Brussels.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/10/27/opinion/27bruni/27bruni-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/26/multimedia/26db-nadella-blow-kjqf/26db-nadella-blow-kjqf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1097,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Can You Punish a Child’s Mental Health Problems Away?</t>
+          <t>Why BuzzFeed Is Closing Its News Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Oct. 27, 2022</t>
+          <t>April 21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>The residential programs that families and kids turn to for help are in desperate need of reform.</t>
+          <t>The publisher ultimately couldn’t surmount the challenges facing digital journalism — and many of its peers are still struggling as well.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/10/12/opinion/op-tti-promo/op-tti-promo-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/21/multimedia/21db-newsletter-buzzfeed1-vhtm/21db-newsletter-buzzfeed1-vhtm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1136,22 +1140,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>This Is What Happens When Election Deniers Let Their Freak Flag Fly</t>
+          <t>DeSantis Appointees Seek to ‘Void’ Disney World Agreement</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Oct. 11, 2022</t>
+          <t>April 19</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The 2020-was-rigged crowd has ambitious plans.</t>
+          <t>A board overseeing the resort wants lawyers to prepare a resolution to stop Disney from maintaining vast control over the complex for decades to come.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/10/11/opinion/11bouie1/merlin_214572399_dbbb1380-a5d4-49bd-980b-979019409ecb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/19/multimedia/19Disney-sub-pwgj/19Disney-sub-pwgj-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1160,7 +1164,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1169,22 +1173,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Glenn Youngkin Knows Exactly What He’s Doing</t>
+          <t>The Plan to Get Rupert Murdoch to Pay Up</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Oct. 11, 2022</t>
+          <t>April 19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>The governor believes he needs to cater to and actually support election questioners and deniers to have a shot at leading the Republican Party.</t>
+          <t>An owner of Dominion Voting Systems spoke about the company’s strategy that led Fox to agree to a $787.5 million defamation settlement.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/09/22/opinion/20bouie-1/20bouie-1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/19/multimedia/19db-murdoch-mjpc/19db-murdoch-mjpc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1196,28 +1200,28 @@
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Even With Biden as a Pro-Labor Champion, Unionizing Is Still a Grind</t>
+          <t>Goldman Sachs Falters Amid Strong Earnings From Big Banks</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sept. 20, 2022</t>
+          <t>April 18</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A flurry of new organizing efforts is giving young people hope.</t>
+          <t>The Wall Street giant’s latest financial results show how its push into consumer banking remains a drag on its overall business.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/09/05/opinion/05stockman1/05stockman1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/18/multimedia/18db-goldman-fglq/18db-goldman-fglq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1235,22 +1239,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>The Lawless G.O.P. Response to the Raid at Mar-a-Lago</t>
+          <t>DeSantis, in Latest Volley Against Disney, Suggests Punitive Steps</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sept. 5, 2022</t>
+          <t>April 17</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Being seen to be persecuted by federal officers is now a badge of honor in the Republican Party.</t>
+          <t>The Florida governor also described proposed legislation he said would override the company’s effort to sidestep oversight of its theme parks.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/08/09/multimedia/09fredrickson_2/09fredrickson_2-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/17/multimedia/17disney-01-fhlw/17disney-01-fhlw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1259,7 +1263,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1268,22 +1272,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>This Is Why Peter Meijer Lost?</t>
+          <t>N.B.A. Blames Economy for Hiring Freeze and Budget Cuts</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aug. 9, 2022</t>
+          <t>April 11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>What one Michigan primary tells us about Democrats’ strategy heading into the midterms.</t>
+          <t>In a memo, the league said it was “facing a very different economic reality than just one year ago.”</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/08/04/multimedia/04miller_1/04miller_1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/11/multimedia/11nba-budget-kqjz/11nba-budget-kqjz-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1301,22 +1305,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Is It All About ‘Fealty to Trump’s Delusions’? Three Writers Talk About Where the G.O.P. Is Headed.</t>
+          <t>Trump Finally Has His Day in Court</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aug. 4, 2022</t>
+          <t>April 4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>How should we assess the Republican Party?</t>
+          <t>The former president’s poll ratings and some of his business fortunes have rallied ahead of his arraignment on Tuesday.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://static01.nyt.com/images/2022/08/03/opinion/03roundtable/03roundtable-threeByTwoSmallAt2X.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/04db-trump-fczg/04db-trump-fczg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1328,6 +1332,1656 @@
         <v>0</v>
       </c>
       <c r="G27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DeSantis and Disney Clash Anew Over Florida Theme Park’s Authority</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>April 3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>The Florida governor wants the state inspector general to look into Disney’s efforts to limit oversight of Walt Disney World. The company called his action “anti-business.”</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/04/multimedia/03JPdisney-desantis-printcqwg/03disney-desantis-cqwg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>news_picture_27</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>The Value of Regional Banks</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>April 1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>As midsized lenders have come under pressure in the wake of Silicon Valley Bank’s collapse, experts say their role in the economy must be preserved.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/04/01/business/01DB-SVB/01DB-SVB-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>news_picture_28</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>The Beach Boys Making a Final Four Run</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>April 1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Florida Atlantic has seemingly come out of nowhere to make a deep run in the men’s N.C.A.A. tournament. The university’s ambitions are relatively young, too.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/31/multimedia/owls1-ptvk/owls1-ptvk-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>news_picture_29</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DeSantis’s Allies Discover Disney Evaded Florida’s Move to Rein It In</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>March 30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>The Florida governor’s new Disney World oversight board belatedly realized that the company had quietly sidestepped its control.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/30/multimedia/30disney-florida-vlft/30disney-florida-vlft-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>news_picture_30</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Bob Iger Ousts a Marvel Antagonist</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>March 30</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ike Perlmutter, the chairman of Marvel Entertainment who’s had a volatile tenure at Disney, was among the latest round of job cuts at the entertainment giant.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/30/multimedia/30db-dis-wfqc/30db-dis-wfqc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>news_picture_31</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>How Judy Blume Finally Got a ‘Yes’ From Hollywood</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>March 7</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Decades after she first discussed translating her work to film and television, the Blume-aissance is upon us. All it needed was for Judy Blume fans to take charge in the entertainment industry.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/03/12/multimedia/07JudyBlume-vbkw/07JudyBlume-vbkw-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>news_picture_32</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>China Chases ChatGPT’s Success</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Feb. 23</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A wave of Chinese tech companies are announcing their own A.I.-powered chatbots — but face hurdles imposed by their own government.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/02/23/multimedia/23db-newsletter-baidu-tcpw/23db-newsletter-baidu-tcpw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>news_picture_33</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Republican Bashing of E.S.G. Gets More Complicated</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Feb. 22</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A number of Republican lawmakers have taken money from the companies they vilified. But some of the party’s presidential hopefuls are still on the attack.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/02/22/multimedia/22db-newsletter-ramaswamy-zljb/22db-newsletter-ramaswamy-zljb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>news_picture_34</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>A Missed $140 Million Payment Sends Sports TV Negotiations Into Overdrive</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Feb. 15</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>The owners of the regional television channels branded as Bally Sports have nearly $9 billion in debt and owe hefty rights fees to M.L.B., N.B.A. and N.H.L. teams. Now, they’re all on the clock to find a solution.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/02/15/multimedia/15diamond-kbzj/15diamond-kbzj-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>news_picture_35</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Disney Toasts a Century as Business and Political Challenges Mount</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Feb. 13</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>The company is opening two exhibitions that will tour the globe until 2028. It comes at a moment when its formidable stature in the culture has shown a few cracks.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/02/13/multimedia/13Disney-01-tkqj/13Disney-01-tkqj-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>news_picture_36</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>The Week in Business: Microsoft’s Big Bet on A.I.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Feb. 12</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Robert Iger, brought back as Disney’s C.E.O., unveiled his vision for more austere operations. New inflation data is coming out.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/02/12/business/12withinterest1-illo/12withinterest1-illo-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>news_picture_37</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DeSantis Declares Victory as Disney Is Stripped of Some 56-Year-Old Perks</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Feb. 10</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>The Legislature approved a bill that restricts the autonomy of Florida’s largest private employer over a fight involving the teaching of sexual orientation and gender identity.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/02/10/multimedia/10Disney-sub-qtlb/10Disney-sub-qtlb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>news_picture_38</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>The S.E.C. Signals a Crackdown on Another Crypto Practice</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Feb. 10</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Cryptocurrency executives worry that charges against Kraken, a popular exchange, over the business known as staking would further chill their industry.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/02/10/business/10db-newsletter-secstake/10db-newsletter-secstake-threeByTwoSmallAt2X.png?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>news_picture_39</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Activist Disney Investor Ends Battle for Board Seat</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Feb. 9</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Nelson Peltz withdrew a day after Bob Iger, the chief executive, announced a restructuring that will cut $5.5 billion in costs and roughly 7,000 jobs.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/02/09/multimedia/09disney-01-ptfq/09disney-01-ptfq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>news_picture_40</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Bob Iger’s Turnaround Plan Takes Shape</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Feb. 9</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Shares jumped after the Disney chief executive unveiled plans to revamp its streaming business and cut costs, including through thousands of layoffs.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/02/09/multimedia/09db-iger-wzqj/09db-iger-wzqj-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>news_picture_41</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Searching for Streaming Profit, Disney Cuts $5.5 Billion in Costs</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Feb. 8</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>In the company’s first earnings report since Bob Iger returned as C.E.O., it exceeded Wall Street’s expectations. But about 7,000 jobs are expected to be cut.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/02/09/multimedia/09Disney-iger-sub-kctg/09Disney-iger-sub-kctg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>news_picture_42</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ChatGPT Gets Fresh Competition</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Feb. 7</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Google and Baidu are set to introduce their own A.I.-powered chatbots to challenge OpenAI, Microsoft and the rising popularity of ChatGPT.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/02/07/multimedia/07DB-SundarPichai-tphf/07DB-SundarPichai-tphf-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>news_picture_43</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Nets Trading Kyrie Irving to Dallas Mavericks After His Request to Leave</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Feb. 5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Irving’s tenure with the Nets was marred by his refusal to be vaccinated for the coronavirus and his posting of a link to an antisemitic film. In Dallas, he will join the superstar Luka Doncic.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/02/05/multimedia/05nba-kyrie-bkgm/05nba-kyrie-bkgm-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>news_picture_44</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Disney World Workers Reject Contract Offer</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Feb. 4</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Unions that represent about 32,000 full-time workers said the vote was overwhelmingly against the proposal, which would have raised pay by at least $1 an hour per year.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/02/04/multimedia/04disney-labor-2-tlcg/04disney-labor-2-tlcg-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>news_picture_45</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Everton’s Identity Crisis</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Jan. 27</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Europe is filled with big clubs that lost their way. But soccer’s fallen giants will never rise again until they face what they’ve become.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/01/29/multimedia/27rory-top-tvwh/27rory-top-tvwh-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>news_picture_46</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>When the Owner Isn’t the (Only) Problem</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Jan. 20</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Wealthy owners are an easy target for fans who want to vent their anger over failing teams. But money isn’t a solution when there is no plan.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/01/20/multimedia/20rory-everton-lwtq/20rory-everton-lwtq-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>news_picture_47</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Disney Braces for a Fight Over Its Board</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Jan. 12</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>After months of talks, the activist investor Nelson Peltz is jockeying for a director position at the entertainment giant as he pushes for a series of changes.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/01/12/multimedia/12db-peltz-lbkc/12db-peltz-lbkc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>news_picture_48</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Disney Pushes Back Against Activist Investor’s Quest for Board Seat</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Jan. 11</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Nelson Peltz wants the company to revamp its streaming business and focus on increasing profits. Disney wants shareholders to vote against his effort to get a seat on the board.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/01/11/multimedia/11Disney-Peltz-mgjw/11Disney-Peltz-mgjw-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>news_picture_49</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Big Cuts Are Coming to Goldman Sachs</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Jan. 11</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>The firm’s chief executive, David Solomon, has given the task of determining which divisions will be affected to a chief lieutenant.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/01/11/multimedia/11db-goldmansachs-jfbc/11db-goldmansachs-jfbc-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>news_picture_50</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Disney Revises Pricing Policies at Its Parks</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Jan. 10</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ticket prices won’t exactly be less, but the cost of some activities and perks will be adjusted, after complaints about the cost of visits.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2023/01/12/multimedia/12Disney-01sub-1-3074/12Disney-01sub-1-3074-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>news_picture_51</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Mickey’s Copyright Adventure: Early Disney Creation Will Soon Be Public Property</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Dec. 27, 2022</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>The version of the iconic character from “Steamboat Willie” will enter the public domain in 2024. But those trying to take advantage could end up in a legal mousetrap.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/12/21/multimedia/00MickeyMouse-01-1-da79/00MickeyMouse-01-1-da79-threeByTwoSmallAt2X-v3.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>news_picture_52</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>GLAAD Praises Increased Inclusiveness of Disney Films</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Dec. 15, 2022</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>In a report on L.G.B.T.Q. representation in movies, the organization lauded the studio but noted some depictions were one dimensional or stereotypical.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/12/15/multimedia/15glaad-1-58d3/15glaad-1-58d3-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>news_picture_53</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>An Activist Investor Takes On BlackRock Over E.S.G.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Dec. 7, 2022</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A hedge fund sees BlackRock’s embrace of E.S.G. principles as a distraction, and it wants the money-management giant’s C.E.O., Laurence Fink, to step down.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/12/07/multimedia/07DB-fink-1-bc49/07DB-fink-1-bc49-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>news_picture_54</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Has Bob Iger Brokered a Truce With Florida?</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Dec. 2, 2022</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Florida lawmakers are reportedly working to resolve their political fight with Disney, just days after Mr. Iger returned as the entertainment giant’s chief executive.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/12/02/multimedia/02db-newsletter-iger-1-9a4a/02db-newsletter-iger-1-9a4a-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>news_picture_55</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mike Pence Plays to the G.O.P. Base From a Times Stage</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Nov. 30, 2022</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Mr. Pence, while promoting his new book at the DealBook Summit, frowned upon the idea of the Justice Department’s taking action against his former boss.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/11/30/multimedia/30dealbook-briefing-pence-1-4a04/30dealbook-briefing-pence-1-4a04-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>news_picture_56</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>After Swift Return, Iger Faces Disney’s Long-Term Challenges</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Nov. 22, 2022</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Robert A. Iger had been gone from the company for less than a year, but he returns to a very different Disney.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/11/22/business/22Disney-Iger-01/22Disney-Iger-01-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>news_picture_57</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Iger’s Sudden Return to Disney Shocks a Discontented Kingdom</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nov. 21, 2022</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>After Bob Chapek, the departing chief executive, tried to put a sunny spin on a disastrous earnings report this month, senior Disney leaders began talking about resigning.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/11/21/multimedia/21disney-iger-02-promo/21disney-iger-02-promo-threeByTwoSmallAt2X-v2.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>news_picture_58</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Investors Cheer Leadership Shakeup at Disney</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nov. 21, 2022</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Shares in the entertainment giant climbed more than 9 percent in premarket trading on Monday following the ouster of chief executive officer Bob Chapek.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/11/21/multimedia/db21-disney-1-e23a/db21-disney-1-e23a-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>news_picture_59</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Disney Brings Back Bob Iger After Ousting Chapek as C.E.O.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nov. 20, 2022</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Mr. Iger is returning to the company he ran for 15 years after being succeeded by Bob Chapek in 2020.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/11/21/world/21Disney1/merlin_195939243_addbbb6c-e27f-46a4-a093-da9ae46efa79-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>news_picture_60</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>The Secret Is Out on How Good the Grizzlies Can Be</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nov. 14, 2022</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>The young Memphis Grizzlies aren’t underdogs anymore, and that’s causing some growing pains. But they are confident — and having fun.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/11/13/sports/13nba-grizzlies-1/merlin_215429250_01da4c30-4755-4b6b-8e06-27f2fb2909d3-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>news_picture_61</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Nets Name Jacque Vaughn as Head Coach</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Nov. 9, 2022</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Vaughn, an assistant coach, was filling in since the team fired Steve Nash last week. Guard Kyrie Irving, who promoted an antisemitic movie on Twitter, remains suspended.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/11/09/sports/09nba-nets-vaughn-1/merlin_216115524_ddb3b7e1-7f63-4270-b43f-533e7095b2a1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>news_picture_62</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Crypto Investors Grapple With the Collapse of a Giant</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Nov. 9, 2022</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Prices of digital currencies have tumbled even after the exchange FTX announced a provisional lifeline by a top rival, Binance.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/11/09/multimedia/09db-SBF-1-8db2/09db-SBF-1-8db2-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>news_picture_63</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Disney+ Adds 12 Million Subscribers, but Cites ‘Peak Losses’</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Nov. 8, 2022</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>The confidence generated by the subscriber growth was offset by widening financial losses for the company’s direct-to-consumer division over all.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/11/08/business/08disney-sub/merlin_210865992_05492d4d-290f-41c3-b675-a5c4a940ddeb-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>news_picture_64</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>A New Push for Business to Help Pay for Climate-Change Solutions</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Nov. 7, 2022</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>As global leaders gather at COP27, efforts are reportedly underway to have companies help shoulder the financial burden.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/11/07/multimedia/07DB-sharmcop-1-c5ec/07DB-sharmcop-1-c5ec-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>news_picture_65</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>What Will the Midterms Mean for Big Business?</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Nov. 5, 2022</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>The G.O.P. and corporate America, longtime allies, are showing signs of a breakup — which recent polls suggest will likely play out with a Republican House.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/11/07/business/00db-nocera-print/00db-repubs-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>news_picture_66</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Disney Tries Mixing Streaming With Shopping</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Nov. 1, 2022</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>The Walt Disney Company announced that it would experiment with offering Disney+ subscribers exclusive access to themed merchandise.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/11/02/multimedia/01disney-shopping-print/01disney-shopping-pic-1-f75f-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>news_picture_67</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Credit Suisse Takes a Hit Over Investor Fears</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Oct. 3, 2022</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Shares in the troubled Swiss banking giant sunk on Monday as investors worry it may not pull off a risky turnaround plan.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/10/03/multimedia/03-CS-1-d700/03-CS-1-d700-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>news_picture_68</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>‘Act of Sabotage’ Hits Europe’s Energy and Stocks Markets</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Sept. 28, 2022</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Natural gas prices soared in Europe and stocks fell, as officials investigate the causes of the Nordstream 1 and 2 gas pipeline explosions.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/09/28/multimedia/28DB-gazprom-1-7af3/28DB-gazprom-1-7af3-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>news_picture_69</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Silicon Valley Had Its Heyday. Can Tech Ecosystems Now Grow Inland?</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Sept. 24, 2022</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>The AOL co-founder Steve Case sees a need for entrepreneurial hubs beyond the coasts. “Let’s have it be a few dozen cities,” he says.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/09/25/business/25sky1art/merlin_168490758_1671e0e7-429f-4357-83fd-884719adcc96-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>news_picture_70</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>An Anti-E.S.G. Activist Takes on Apple and Disney</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Sept. 20, 2022</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A prominent critic of investing that factors in climate and social considerations wants to use shareholder pressure to refocus companies on profits.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/09/20/multimedia/20DB-Vivek/20DB-Vivek-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>news_picture_71</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>At Corporate Pep Rally, Disney C.E.O. Pitches Warmer, Fuzzier Side</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Sept. 11, 2022</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>At this weekend’s D23 Expo in California, Bob Chapek worked to rebrand himself after a difficult start to his tenure.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/09/12/business/11disney-chapek1-print/merlin_212847090_867121a7-54db-4c9f-8899-4b388ed5c1b1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>news_picture_72</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>BlackRock Seeks to Defend Its Reputation Over E.S.G. Fight</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Sept. 8, 2022</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>The world’s largest money manager fired off a letter to attorneys general in 19 states rebutting claims about its position on climate-minded investing.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/09/08/multimedia/08db-newsletter-blackrock/08db-newsletter-blackrock-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>news_picture_73</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Big Tech Reconsiders the “Made in China” Way</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Sept. 1, 2022</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Apple, Google and Microsoft are among the technology firms looking to shift some of their manufacturing out of China.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/09/01/multimedia/01db-china/01db-china-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>news_picture_74</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>‘Cable Cowboy’ John Malone Sees More Streaming Bundles Ahead</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Aug. 21, 2022</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>The media mogul also said news channels should do a better job of distinguishing between news and opinion.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/08/19/business/00malone-1/merlin_109694494_c272861a-7f53-4f30-ae7b-cbe7f22b8028-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>news_picture_75</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Disney Profit Jumps 50%, and Streaming Subscriptions Surpass Netflix</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Aug. 10, 2022</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>The company unveiled details of an ad-supported Disney+ as demand at its theme parks rebounded.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://static01.nyt.com/images/2022/08/10/multimedia/10disney-pic1/10disney-pic1-threeByTwoSmallAt2X.jpg?quality=75&amp;auto=webp&amp;disable=upscale</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>news_picture_76</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" t="b">
         <v>0</v>
       </c>
     </row>
